--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -2289,7 +2289,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>4</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>102</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2091</x:v>
+        <x:v>2090</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1938,7 +1938,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>14</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>15</x:v>
@@ -2014,7 +2014,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7698</x:v>
+        <x:v>7697</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4777</x:v>
@@ -729,7 +729,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>39</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15037</x:v>
+        <x:v>15035</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8583</x:v>
+        <x:v>8582</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5315</x:v>
@@ -787,7 +787,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>41</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16829</x:v>
+        <x:v>16827</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8609</x:v>
+        <x:v>8610</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2632</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15690</x:v>
+        <x:v>15691</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9164</x:v>
+        <x:v>9165</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2744</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16606</x:v>
+        <x:v>16607</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,10 +1358,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1214</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>665</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>47</x:v>
@@ -1416,10 +1416,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1246</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>47</x:v>
@@ -1677,7 +1677,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>35</x:v>
@@ -1695,7 +1695,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1735,7 +1735,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>37</x:v>
@@ -1753,7 +1753,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>15</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>17</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>1037</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7697</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4777</x:v>
+        <x:v>4778</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15035</x:v>
+        <x:v>15036</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8582</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5315</x:v>
+        <x:v>5316</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16827</x:v>
+        <x:v>16828</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7697</x:v>
+        <x:v>7698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4778</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15036</x:v>
+        <x:v>15037</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8582</x:v>
+        <x:v>8583</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5316</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16828</x:v>
+        <x:v>16829</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7698</x:v>
+        <x:v>7697</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4778</x:v>
+        <x:v>4779</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8583</x:v>
+        <x:v>8582</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5316</x:v>
+        <x:v>5317</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>593</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1997</x:v>
+        <x:v>1998</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>675</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2334</x:v>
+        <x:v>2335</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8610</x:v>
+        <x:v>8609</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2632</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3032</x:v>
+        <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>15691</x:v>
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9165</x:v>
+        <x:v>9164</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2744</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3248</x:v>
+        <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
         <x:v>16607</x:v>
@@ -1764,10 +1764,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6277</x:v>
+        <x:v>6267</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3618</x:v>
+        <x:v>3619</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>196</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>1163</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
         <x:v>12018</x:v>
@@ -1822,10 +1822,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6694</x:v>
+        <x:v>6684</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4002</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>207</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
         <x:v>12949</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1779,10 +1779,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>1172</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12018</x:v>
+        <x:v>12017</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1837,10 +1837,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>1270</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12949</x:v>
+        <x:v>12948</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>8609</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2632</x:v>
+        <x:v>2633</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>359</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15691</x:v>
+        <x:v>15692</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>9164</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2744</x:v>
+        <x:v>2745</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>374</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16607</x:v>
+        <x:v>16608</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8609</x:v>
+        <x:v>8608</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2633</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15692</x:v>
+        <x:v>15691</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9164</x:v>
+        <x:v>9163</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2745</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16608</x:v>
+        <x:v>16607</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1215</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>664</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2441</x:v>
+        <x:v>2442</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>696</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7697</x:v>
+        <x:v>7696</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4779</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15037</x:v>
+        <x:v>15036</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8582</x:v>
+        <x:v>8581</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5317</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16829</x:v>
+        <x:v>16828</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>664</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2442</x:v>
+        <x:v>2445</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>696</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2530</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>716</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8608</x:v>
+        <x:v>8606</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2633</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15691</x:v>
+        <x:v>15689</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9163</x:v>
+        <x:v>9161</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2745</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16607</x:v>
+        <x:v>16605</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7696</x:v>
+        <x:v>7697</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4779</x:v>
@@ -729,7 +729,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>39</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15036</x:v>
+        <x:v>15038</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8581</x:v>
+        <x:v>8582</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5317</x:v>
@@ -787,7 +787,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>41</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16828</x:v>
+        <x:v>16830</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7697</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4779</x:v>
+        <x:v>4784</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1404</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15038</x:v>
+        <x:v>15043</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8582</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5317</x:v>
+        <x:v>5322</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1634</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16830</x:v>
+        <x:v>16835</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8606</x:v>
+        <x:v>8604</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2633</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15689</x:v>
+        <x:v>15687</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9161</x:v>
+        <x:v>9159</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2745</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16605</x:v>
+        <x:v>16603</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>14</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>15</x:v>
@@ -2014,7 +2014,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8604</x:v>
+        <x:v>8601</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2633</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15687</x:v>
+        <x:v>15684</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9159</x:v>
+        <x:v>9156</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2745</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16603</x:v>
+        <x:v>16600</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8601</x:v>
+        <x:v>8600</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2633</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15684</x:v>
+        <x:v>15683</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9156</x:v>
+        <x:v>9155</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2745</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16600</x:v>
+        <x:v>16599</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1361,7 +1361,7 @@
         <x:v>1219</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>47</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2445</x:v>
+        <x:v>2444</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1419,7 +1419,7 @@
         <x:v>1251</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>47</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2530</x:v>
+        <x:v>2529</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -735,10 +735,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1404</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15043</x:v>
+        <x:v>15044</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>538</x:v>
@@ -767,7 +767,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1792</x:v>
+        <x:v>1794</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8582</x:v>
+        <x:v>8584</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5322</x:v>
@@ -793,10 +793,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16835</x:v>
+        <x:v>16838</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1132,7 +1132,7 @@
         <x:v>2633</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1029</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15683</x:v>
+        <x:v>15682</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1190,7 +1190,7 @@
         <x:v>2745</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1046</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16599</x:v>
+        <x:v>16598</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6267</x:v>
+        <x:v>6268</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3619</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12017</x:v>
+        <x:v>12018</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6684</x:v>
+        <x:v>6685</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4003</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12948</x:v>
+        <x:v>12949</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>689</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>79</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2263</x:v>
+        <x:v>2264</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>743</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>102</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2507</x:v>
+        <x:v>2508</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7697</x:v>
+        <x:v>7698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4784</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15044</x:v>
+        <x:v>15045</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8584</x:v>
+        <x:v>8585</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16838</x:v>
+        <x:v>16839</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>593</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1998</x:v>
+        <x:v>1997</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>675</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2335</x:v>
+        <x:v>2334</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8600</x:v>
+        <x:v>8592</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2633</x:v>
+        <x:v>2632</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1029</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>29</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15682</x:v>
+        <x:v>15670</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9155</x:v>
+        <x:v>9147</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2745</x:v>
+        <x:v>2744</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>30</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16598</x:v>
+        <x:v>16586</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2444</x:v>
+        <x:v>2443</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2529</x:v>
+        <x:v>2528</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1767,7 +1767,7 @@
         <x:v>6268</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3619</x:v>
+        <x:v>3620</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>196</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12018</x:v>
+        <x:v>12019</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>6685</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4003</x:v>
+        <x:v>4004</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>207</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12949</x:v>
+        <x:v>12950</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>550</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1883</x:v>
+        <x:v>1882</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>695</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2090</x:v>
+        <x:v>2089</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>1048</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2264</x:v>
+        <x:v>2263</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2402,7 +2402,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C66" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
         <x:v>1188</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2508</x:v>
+        <x:v>2507</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4784</x:v>
+        <x:v>4785</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15045</x:v>
+        <x:v>15046</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8585</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5322</x:v>
+        <x:v>5323</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16839</x:v>
+        <x:v>16840</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8592</x:v>
+        <x:v>8591</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2632</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15670</x:v>
+        <x:v>15669</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9147</x:v>
+        <x:v>9146</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2744</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3249</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16586</x:v>
+        <x:v>16585</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6268</x:v>
+        <x:v>6269</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3620</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12019</x:v>
+        <x:v>12020</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6685</x:v>
+        <x:v>6686</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4004</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12950</x:v>
+        <x:v>12951</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>550</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1882</x:v>
+        <x:v>1881</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>695</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2089</x:v>
+        <x:v>2088</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4785</x:v>
+        <x:v>4786</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15046</x:v>
+        <x:v>15047</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8585</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5323</x:v>
+        <x:v>5324</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16840</x:v>
+        <x:v>16841</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8591</x:v>
+        <x:v>8592</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2632</x:v>
+        <x:v>2631</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9146</x:v>
+        <x:v>9147</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2744</x:v>
+        <x:v>2743</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4786</x:v>
+        <x:v>4785</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15047</x:v>
+        <x:v>15046</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8585</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5324</x:v>
+        <x:v>5323</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16841</x:v>
+        <x:v>16840</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>493</x:v>
@@ -874,7 +874,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>3</x:v>
@@ -883,7 +883,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1703</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>546</x:v>
@@ -932,7 +932,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>3</x:v>
@@ -941,7 +941,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1862</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8592</x:v>
+        <x:v>8532</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2631</x:v>
+        <x:v>2611</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1026</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3033</x:v>
+        <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15669</x:v>
+        <x:v>15586</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>15</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9147</x:v>
+        <x:v>9087</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2743</x:v>
+        <x:v>2722</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1043</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3249</x:v>
+        <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16585</x:v>
+        <x:v>16501</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2443</x:v>
+        <x:v>2442</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2528</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6269</x:v>
+        <x:v>6268</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3620</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12020</x:v>
+        <x:v>12019</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6686</x:v>
+        <x:v>6685</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4004</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12951</x:v>
+        <x:v>12950</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>550</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1879</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>695</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2088</x:v>
+        <x:v>2086</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>1048</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2263</x:v>
+        <x:v>2261</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2402,7 +2402,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C66" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
         <x:v>1188</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2507</x:v>
+        <x:v>2505</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -2173,7 +2173,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>15</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>876</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>17</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>8532</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2611</x:v>
+        <x:v>2610</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15586</x:v>
+        <x:v>15585</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>9087</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2722</x:v>
+        <x:v>2721</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16501</x:v>
+        <x:v>16500</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8532</x:v>
+        <x:v>8528</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2610</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15585</x:v>
+        <x:v>15581</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9087</x:v>
+        <x:v>9083</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2721</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16500</x:v>
+        <x:v>16496</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8528</x:v>
+        <x:v>8527</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2610</x:v>
+        <x:v>2609</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15581</x:v>
+        <x:v>15579</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9083</x:v>
+        <x:v>9082</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2721</x:v>
+        <x:v>2720</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16496</x:v>
+        <x:v>16494</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -868,7 +868,7 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>52</x:v>
@@ -883,7 +883,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1704</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>1018</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>60</x:v>
@@ -941,7 +941,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1862</x:v>
+        <x:v>1863</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8527</x:v>
+        <x:v>8526</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2609</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15579</x:v>
+        <x:v>15578</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9082</x:v>
+        <x:v>9081</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2720</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16494</x:v>
+        <x:v>16493</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2269,13 +2269,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>235</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1879</x:v>
+        <x:v>1880</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2327,13 +2327,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2086</x:v>
+        <x:v>2087</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8526</x:v>
+        <x:v>8525</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2609</x:v>
+        <x:v>2607</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1025</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>28</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15578</x:v>
+        <x:v>15573</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9081</x:v>
+        <x:v>9080</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2720</x:v>
+        <x:v>2718</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1042</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>29</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16493</x:v>
+        <x:v>16488</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1619,7 +1619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>6</x:v>
@@ -1637,7 +1637,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1648,7 +1648,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>6</x:v>
@@ -1666,7 +1666,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>8525</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2607</x:v>
+        <x:v>2602</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15573</x:v>
+        <x:v>15568</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>9080</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2718</x:v>
+        <x:v>2713</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16488</x:v>
+        <x:v>16483</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1217</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2442</x:v>
+        <x:v>2441</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2526</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -2118,7 +2118,7 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
         <x:v>4</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2147,7 +2147,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>34</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>837</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8525</x:v>
+        <x:v>8524</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2602</x:v>
+        <x:v>2601</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3032</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15568</x:v>
+        <x:v>15566</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9080</x:v>
+        <x:v>9079</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2713</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3248</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16483</x:v>
+        <x:v>16481</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7698</x:v>
+        <x:v>7700</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4785</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15046</x:v>
+        <x:v>15048</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8585</x:v>
+        <x:v>8587</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5323</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16840</x:v>
+        <x:v>16842</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1141,10 +1141,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3032</x:v>
+        <x:v>3031</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15566</x:v>
+        <x:v>15565</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1199,10 +1199,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3248</x:v>
+        <x:v>3247</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16481</x:v>
+        <x:v>16480</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>1048</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2261</x:v>
+        <x:v>2260</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2402,7 +2402,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C66" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
         <x:v>1188</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2504</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8524</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2601</x:v>
+        <x:v>2600</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3031</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15565</x:v>
+        <x:v>15563</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9079</x:v>
+        <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2711</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3247</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16480</x:v>
+        <x:v>16478</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -2350,7 +2350,7 @@
         <x:v>1048</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F64" s="1" t="n">
         <x:v>68</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2260</x:v>
+        <x:v>2261</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2408,7 +2408,7 @@
         <x:v>1188</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
         <x:v>74</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2504</x:v>
+        <x:v>2505</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8523</x:v>
+        <x:v>8522</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2600</x:v>
+        <x:v>2599</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3031</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15563</x:v>
+        <x:v>15561</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9078</x:v>
+        <x:v>9077</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2711</x:v>
+        <x:v>2710</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3247</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16478</x:v>
+        <x:v>16476</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8522</x:v>
+        <x:v>8520</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2599</x:v>
+        <x:v>2598</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3031</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15561</x:v>
+        <x:v>15558</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9077</x:v>
+        <x:v>9075</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2710</x:v>
+        <x:v>2709</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3247</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16476</x:v>
+        <x:v>16473</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2441</x:v>
+        <x:v>2442</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6268</x:v>
+        <x:v>6266</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3620</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12019</x:v>
+        <x:v>12017</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6685</x:v>
+        <x:v>6683</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4004</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12950</x:v>
+        <x:v>12948</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8520</x:v>
+        <x:v>8518</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2598</x:v>
+        <x:v>2599</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3031</x:v>
+        <x:v>3030</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15558</x:v>
+        <x:v>15556</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9075</x:v>
+        <x:v>9073</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2709</x:v>
+        <x:v>2710</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3247</x:v>
+        <x:v>3246</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16473</x:v>
+        <x:v>16471</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8518</x:v>
+        <x:v>8520</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2599</x:v>
+        <x:v>2597</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9073</x:v>
+        <x:v>9075</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2710</x:v>
+        <x:v>2708</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1217</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2442</x:v>
+        <x:v>2443</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2528</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7700</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4785</x:v>
+        <x:v>4786</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>299</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15048</x:v>
+        <x:v>15049</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8587</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5323</x:v>
+        <x:v>5324</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>322</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16842</x:v>
+        <x:v>16843</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8520</x:v>
+        <x:v>8517</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2597</x:v>
+        <x:v>2596</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3030</x:v>
+        <x:v>3029</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15556</x:v>
+        <x:v>15551</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9075</x:v>
+        <x:v>9072</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2708</x:v>
+        <x:v>2707</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3246</x:v>
+        <x:v>3245</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16471</x:v>
+        <x:v>16466</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7700</x:v>
+        <x:v>7699</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4786</x:v>
@@ -738,7 +738,7 @@
         <x:v>1405</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15049</x:v>
+        <x:v>15048</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8587</x:v>
+        <x:v>8586</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5324</x:v>
@@ -796,7 +796,7 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16843</x:v>
+        <x:v>16842</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8517</x:v>
+        <x:v>8518</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2596</x:v>
+        <x:v>2592</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3029</x:v>
+        <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15551</x:v>
+        <x:v>15546</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9072</x:v>
+        <x:v>9073</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2707</x:v>
+        <x:v>2703</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3245</x:v>
+        <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16466</x:v>
+        <x:v>16461</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8518</x:v>
+        <x:v>8517</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2592</x:v>
+        <x:v>2588</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>28</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15546</x:v>
+        <x:v>15539</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9073</x:v>
+        <x:v>9072</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2703</x:v>
+        <x:v>2699</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1040</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>29</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16461</x:v>
+        <x:v>16454</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>663</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2443</x:v>
+        <x:v>2442</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>695</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2528</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1764,10 +1764,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6266</x:v>
+        <x:v>6267</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3620</x:v>
+        <x:v>3619</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>196</x:v>
@@ -1822,10 +1822,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6683</x:v>
+        <x:v>6684</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4004</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>207</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -2347,7 +2347,7 @@
         <x:v>685</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>80</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2261</x:v>
+        <x:v>2260</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>739</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>103</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2504</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8517</x:v>
+        <x:v>8518</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2588</x:v>
+        <x:v>2586</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>28</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15539</x:v>
+        <x:v>15537</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9072</x:v>
+        <x:v>9073</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2699</x:v>
+        <x:v>2697</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>29</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16454</x:v>
+        <x:v>16452</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1764,13 +1764,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6267</x:v>
+        <x:v>6266</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3619</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
         <x:v>740</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12017</x:v>
+        <x:v>12015</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,13 +1822,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6684</x:v>
+        <x:v>6683</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4003</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>761</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12948</x:v>
+        <x:v>12946</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7699</x:v>
+        <x:v>7716</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4786</x:v>
+        <x:v>4792</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1405</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15048</x:v>
+        <x:v>15078</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>538</x:v>
@@ -767,7 +767,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1794</x:v>
+        <x:v>1797</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8586</x:v>
+        <x:v>8606</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5324</x:v>
+        <x:v>5330</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1638</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16842</x:v>
+        <x:v>16875</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,10 +865,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>52</x:v>
@@ -883,7 +883,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1706</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,10 +923,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>60</x:v>
@@ -941,7 +941,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1863</x:v>
+        <x:v>1865</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>452</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>23</x:v>
@@ -970,7 +970,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1013,7 +1013,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>23</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>593</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1997</x:v>
+        <x:v>1999</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1071,7 +1071,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,10 +1097,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>88</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2334</x:v>
+        <x:v>2335</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8518</x:v>
+        <x:v>8525</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2586</x:v>
+        <x:v>2590</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15537</x:v>
+        <x:v>15548</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>15</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>916</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9073</x:v>
+        <x:v>9080</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2697</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16452</x:v>
+        <x:v>16464</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1767,7 +1767,7 @@
         <x:v>6266</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3619</x:v>
+        <x:v>3620</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>195</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12015</x:v>
+        <x:v>12016</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>11</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>6683</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4003</x:v>
+        <x:v>4005</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>206</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12946</x:v>
+        <x:v>12948</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>207</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>301</x:v>
@@ -1924,10 +1924,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>550</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1880</x:v>
+        <x:v>1878</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>695</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>2087</x:v>
+        <x:v>2085</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8525</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2590</x:v>
+        <x:v>2589</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15548</x:v>
+        <x:v>15545</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9080</x:v>
+        <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2701</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16464</x:v>
+        <x:v>16461</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1361,7 +1361,7 @@
         <x:v>1217</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>47</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2442</x:v>
+        <x:v>2441</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1419,7 +1419,7 @@
         <x:v>1249</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>47</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2526</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1373,10 +1373,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2441</x:v>
+        <x:v>2443</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1431,10 +1431,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2528</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1773,7 +1773,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>24</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12016</x:v>
+        <x:v>12017</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1831,7 +1831,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>24</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12948</x:v>
+        <x:v>12949</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>593</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1999</x:v>
+        <x:v>2001</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1220</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>674</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2335</x:v>
+        <x:v>2337</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2589</x:v>
+        <x:v>2590</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>358</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15545</x:v>
+        <x:v>15546</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2701</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>373</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16461</x:v>
+        <x:v>16462</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>60</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>65</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>969</x:v>
+        <x:v>968</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>202</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
         <x:v>876</x:v>
@@ -2228,7 +2228,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>611</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>230</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
         <x:v>1037</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1132,7 +1132,7 @@
         <x:v>2590</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1020</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15546</x:v>
+        <x:v>15545</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1190,7 +1190,7 @@
         <x:v>2702</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1037</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16462</x:v>
+        <x:v>16461</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8523</x:v>
+        <x:v>8524</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2590</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3027</x:v>
+        <x:v>3026</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>15545</x:v>
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9078</x:v>
+        <x:v>9079</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2702</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3243</x:v>
+        <x:v>3242</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
         <x:v>16461</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7716</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4792</x:v>
+        <x:v>4793</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>301</x:v>
@@ -738,7 +738,7 @@
         <x:v>1408</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15078</x:v>
+        <x:v>15079</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8606</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5330</x:v>
+        <x:v>5331</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>324</x:v>
@@ -796,7 +796,7 @@
         <x:v>1638</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16875</x:v>
+        <x:v>16876</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8524</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2590</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1020</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3026</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15545</x:v>
+        <x:v>15543</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9079</x:v>
+        <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2702</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1037</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3242</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16461</x:v>
+        <x:v>16459</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1364,7 +1364,7 @@
         <x:v>662</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>170</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>2443</x:v>
+        <x:v>2444</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1422,7 +1422,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>176</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>2528</x:v>
+        <x:v>2529</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6266</x:v>
+        <x:v>6267</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3620</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12017</x:v>
+        <x:v>12018</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6683</x:v>
+        <x:v>6684</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4005</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12949</x:v>
+        <x:v>12950</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2344,10 +2344,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>80</x:v>
@@ -2402,10 +2402,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C66" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>103</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1129,13 +1129,13 @@
         <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2590</x:v>
+        <x:v>2588</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>28</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3026</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15543</x:v>
+        <x:v>15540</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,13 +1187,13 @@
         <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2700</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>371</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1037</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>29</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3242</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16459</x:v>
+        <x:v>16456</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6267</x:v>
+        <x:v>6266</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>3620</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12018</x:v>
+        <x:v>12017</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6684</x:v>
+        <x:v>6683</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>4005</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12950</x:v>
+        <x:v>12949</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8523</x:v>
+        <x:v>8522</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2588</x:v>
+        <x:v>2587</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>356</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>3026</x:v>
+        <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15540</x:v>
+        <x:v>15539</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9078</x:v>
+        <x:v>9077</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2700</x:v>
+        <x:v>2699</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>371</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>3242</x:v>
+        <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16456</x:v>
+        <x:v>16455</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -723,7 +723,7 @@
         <x:v>7716</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4793</x:v>
+        <x:v>4792</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>301</x:v>
@@ -738,7 +738,7 @@
         <x:v>1408</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15079</x:v>
+        <x:v>15078</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8606</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5331</x:v>
+        <x:v>5330</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>324</x:v>
@@ -796,7 +796,7 @@
         <x:v>1638</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16876</x:v>
+        <x:v>16875</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>15</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>9077</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2699</x:v>
+        <x:v>2698</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>371</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16455</x:v>
+        <x:v>16454</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>686</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>80</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2260</x:v>
+        <x:v>2261</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2405,7 +2405,7 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>103</x:v>
@@ -2420,7 +2420,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
-        <x:v>2504</x:v>
+        <x:v>2505</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1535,7 +1535,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>5</x:v>
@@ -1550,7 +1550,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1593,7 +1593,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>5</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1767,7 +1767,7 @@
         <x:v>6266</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3620</x:v>
+        <x:v>3621</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>195</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12017</x:v>
+        <x:v>12018</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>6683</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4005</x:v>
+        <x:v>4006</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>206</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12949</x:v>
+        <x:v>12950</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1764,10 +1764,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>6266</x:v>
+        <x:v>6267</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>3621</x:v>
+        <x:v>3622</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>195</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>1171</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12018</x:v>
+        <x:v>12020</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,10 +1822,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>6683</x:v>
+        <x:v>6684</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>4006</x:v>
+        <x:v>4007</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>206</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12950</x:v>
+        <x:v>12952</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -1779,10 +1779,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>1171</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>12020</x:v>
+        <x:v>12021</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1837,10 +1837,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12952</x:v>
+        <x:v>12953</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7716</x:v>
+        <x:v>7718</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4792</x:v>
@@ -729,7 +729,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>40</x:v>
@@ -738,7 +738,7 @@
         <x:v>1408</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>15078</x:v>
+        <x:v>15079</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8606</x:v>
+        <x:v>8608</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5330</x:v>
@@ -787,7 +787,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>42</x:v>
@@ -796,7 +796,7 @@
         <x:v>1638</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16875</x:v>
+        <x:v>16876</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>8522</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2587</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>15539</x:v>
+        <x:v>15540</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9077</x:v>
+        <x:v>9078</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2698</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>3243</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>16454</x:v>
+        <x:v>16455</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>23</x:v>
@@ -2388,7 +2388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
         <x:v>244</x:v>
@@ -2405,7 +2405,7 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
         <x:v>103</x:v>
@@ -2417,7 +2417,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="I66" s="1" t="n">
         <x:v>2505</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -313,10 +313,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2586</x:t>
+    <x:t>8517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2582</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -328,7 +328,7 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15533</x:t>
+    <x:t>15528</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -346,10 +346,10 @@
     <x:t>915</x:t>
   </x:si>
   <x:si>
-    <x:t>9073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2697</x:t>
+    <x:t>9072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2693</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -364,7 +364,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16448</x:t>
+    <x:t>16443</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -598,22 +598,22 @@
     <x:t>574</x:t>
   </x:si>
   <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263</x:t>
+    <x:t>234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
   </x:si>
   <x:si>
-    <x:t>611</x:t>
+    <x:t>612</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>837</x:t>
+    <x:t>838</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -124,25 +124,25 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4792</x:t>
+    <x:t>7720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4794</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
   </x:si>
   <x:si>
-    <x:t>820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1408</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15079</x:t>
+    <x:t>825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15085</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -160,384 +160,393 @@
     <x:t>1797</x:t>
   </x:si>
   <x:si>
-    <x:t>8608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5330</x:t>
+    <x:t>8610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5332</x:t>
   </x:si>
   <x:si>
     <x:t>324</x:t>
   </x:si>
   <x:si>
-    <x:t>934</x:t>
+    <x:t>939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2582</x:t>
+  </x:si>
+  <x:si>
+    <x:t>356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
   </x:si>
   <x:si>
-    <x:t>1638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2582</x:t>
-  </x:si>
-  <x:si>
-    <x:t>356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
     <x:t>161</x:t>
   </x:si>
   <x:si>
@@ -610,9 +619,6 @@
     <x:t>612</x:t>
   </x:si>
   <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
     <x:t>838</x:t>
   </x:si>
   <x:si>
@@ -640,9 +646,6 @@
     <x:t>155</x:t>
   </x:si>
   <x:si>
-    <x:t>1037</x:t>
-  </x:si>
-  <x:si>
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
@@ -691,13 +694,13 @@
     <x:t>686</x:t>
   </x:si>
   <x:si>
-    <x:t>1047</x:t>
+    <x:t>1048</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>2261</x:t>
+    <x:t>2262</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
@@ -709,7 +712,7 @@
     <x:t>740</x:t>
   </x:si>
   <x:si>
-    <x:t>1186</x:t>
+    <x:t>1187</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -721,7 +724,7 @@
     <x:t>397</x:t>
   </x:si>
   <x:si>
-    <x:t>2503</x:t>
+    <x:t>2504</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1558,22 +1561,22 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1613,16 +1616,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
@@ -1631,47 +1634,47 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
         <x:v>17</x:v>
@@ -1680,137 +1683,137 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
@@ -1831,15 +1834,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>18</x:v>
@@ -1863,18 +1866,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
         <x:v>33</x:v>
@@ -1892,12 +1895,12 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1926,7 +1929,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>20</x:v>
@@ -1955,42 +1958,42 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>32</x:v>
@@ -1999,7 +2002,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>15</x:v>
@@ -2008,41 +2011,41 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2071,7 +2074,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>18</x:v>
@@ -2100,7 +2103,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2124,41 +2127,41 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I35" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2182,12 +2185,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
@@ -2196,7 +2199,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>30</x:v>
@@ -2208,27 +2211,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
         <x:v>13</x:v>
@@ -2237,27 +2240,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
         <x:v>13</x:v>
@@ -2266,27 +2269,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
         <x:v>148</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E41" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
         <x:v>30</x:v>
@@ -2298,12 +2301,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>18</x:v>
@@ -2332,19 +2335,19 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
         <x:v>30</x:v>
@@ -2356,56 +2359,56 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>15</x:v>
@@ -2414,50 +2417,50 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>69</x:v>
@@ -2472,21 +2475,21 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>30</x:v>
@@ -2501,50 +2504,50 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>14</x:v>
@@ -2559,18 +2562,18 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>13</x:v>
@@ -2588,18 +2591,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>16</x:v>
@@ -2614,21 +2617,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H52" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>64</x:v>
@@ -2646,18 +2649,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>64</x:v>
@@ -2675,41 +2678,41 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>18</x:v>
@@ -2718,13 +2721,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>15</x:v>
@@ -2733,79 +2736,79 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>19</x:v>
@@ -2817,73 +2820,73 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2892,10 +2895,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>30</x:v>
@@ -2904,56 +2907,56 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2962,15 +2965,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2979,51 +2982,51 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,7 +316,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8516</x:t>
+    <x:t>8515</x:t>
   </x:si>
   <x:si>
     <x:t>2582</x:t>
@@ -334,7 +334,7 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15528</x:t>
+    <x:t>15527</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -352,7 +352,7 @@
     <x:t>915</x:t>
   </x:si>
   <x:si>
-    <x:t>9071</x:t>
+    <x:t>9070</x:t>
   </x:si>
   <x:si>
     <x:t>2693</x:t>
@@ -370,7 +370,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16443</x:t>
+    <x:t>16442</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -391,7 +391,7 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1220</x:t>
+    <x:t>1221</x:t>
   </x:si>
   <x:si>
     <x:t>662</x:t>
@@ -406,7 +406,7 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>2447</x:t>
+    <x:t>2448</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -418,7 +418,7 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>1252</x:t>
+    <x:t>1253</x:t>
   </x:si>
   <x:si>
     <x:t>693</x:t>
@@ -430,7 +430,7 @@
     <x:t>357</x:t>
   </x:si>
   <x:si>
-    <x:t>2531</x:t>
+    <x:t>2532</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,10 +316,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2582</x:t>
+    <x:t>8514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2581</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -334,7 +334,7 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15527</x:t>
+    <x:t>15525</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -352,10 +352,10 @@
     <x:t>915</x:t>
   </x:si>
   <x:si>
-    <x:t>9070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2693</x:t>
+    <x:t>9069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2692</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -370,7 +370,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16442</x:t>
+    <x:t>16440</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -127,7 +127,7 @@
     <x:t>7720</x:t>
   </x:si>
   <x:si>
-    <x:t>4794</x:t>
+    <x:t>4795</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
@@ -142,7 +142,7 @@
     <x:t>1406</x:t>
   </x:si>
   <x:si>
-    <x:t>15085</x:t>
+    <x:t>15086</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -163,7 +163,7 @@
     <x:t>8610</x:t>
   </x:si>
   <x:si>
-    <x:t>5332</x:t>
+    <x:t>5333</x:t>
   </x:si>
   <x:si>
     <x:t>324</x:t>
@@ -178,7 +178,7 @@
     <x:t>1636</x:t>
   </x:si>
   <x:si>
-    <x:t>16882</x:t>
+    <x:t>16883</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,7 +316,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8514</x:t>
+    <x:t>8512</x:t>
   </x:si>
   <x:si>
     <x:t>2581</x:t>
@@ -334,7 +334,7 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15525</x:t>
+    <x:t>15523</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -352,7 +352,7 @@
     <x:t>915</x:t>
   </x:si>
   <x:si>
-    <x:t>9069</x:t>
+    <x:t>9067</x:t>
   </x:si>
   <x:si>
     <x:t>2692</x:t>
@@ -370,7 +370,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16440</x:t>
+    <x:t>16438</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -625,13 +625,13 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>520</x:t>
+    <x:t>521</x:t>
   </x:si>
   <x:si>
     <x:t>202</x:t>
   </x:si>
   <x:si>
-    <x:t>876</x:t>
+    <x:t>877</x:t>
   </x:si>
   <x:si>
     <x:t>90</x:t>
@@ -640,10 +640,13 @@
     <x:t>36</x:t>
   </x:si>
   <x:si>
-    <x:t>610</x:t>
+    <x:t>611</x:t>
   </x:si>
   <x:si>
     <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1038</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -2852,41 +2855,41 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2895,7 +2898,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>148</x:v>
@@ -2907,27 +2910,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
         <x:v>184</x:v>
@@ -2936,27 +2939,27 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2968,12 +2971,12 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2982,7 +2985,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
@@ -2997,36 +3000,36 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,7 +316,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8512</x:t>
+    <x:t>8511</x:t>
   </x:si>
   <x:si>
     <x:t>2581</x:t>
@@ -334,7 +334,7 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15523</x:t>
+    <x:t>15522</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -352,7 +352,7 @@
     <x:t>915</x:t>
   </x:si>
   <x:si>
-    <x:t>9067</x:t>
+    <x:t>9066</x:t>
   </x:si>
   <x:si>
     <x:t>2692</x:t>
@@ -370,7 +370,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16438</x:t>
+    <x:t>16437</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -694,7 +694,7 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>686</x:t>
+    <x:t>687</x:t>
   </x:si>
   <x:si>
     <x:t>1048</x:t>
@@ -703,7 +703,7 @@
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>2262</x:t>
+    <x:t>2263</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
@@ -712,9 +712,6 @@
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>740</x:t>
-  </x:si>
-  <x:si>
     <x:t>1187</x:t>
   </x:si>
   <x:si>
@@ -727,7 +724,7 @@
     <x:t>397</x:t>
   </x:si>
   <x:si>
-    <x:t>2504</x:t>
+    <x:t>2505</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3011,25 +3008,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="D66" s="1" t="s">
+      <x:c r="E66" s="1" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="E66" s="1" t="s">
+      <x:c r="F66" s="1" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="F66" s="1" t="s">
-        <x:v>235</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>236</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>237</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,7 +316,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8511</x:t>
+    <x:t>8510</x:t>
   </x:si>
   <x:si>
     <x:t>2581</x:t>
@@ -334,10 +334,10 @@
     <x:t>3027</x:t>
   </x:si>
   <x:si>
-    <x:t>15522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>555</x:t>
+    <x:t>15521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>554</x:t>
   </x:si>
   <x:si>
     <x:t>111</x:t>
@@ -349,10 +349,10 @@
     <x:t>216</x:t>
   </x:si>
   <x:si>
-    <x:t>915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9066</x:t>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9064</x:t>
   </x:si>
   <x:si>
     <x:t>2692</x:t>
@@ -370,7 +370,7 @@
     <x:t>3243</x:t>
   </x:si>
   <x:si>
-    <x:t>16437</x:t>
+    <x:t>16435</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -664,7 +664,7 @@
     <x:t>235</x:t>
   </x:si>
   <x:si>
-    <x:t>1877</x:t>
+    <x:t>1878</x:t>
   </x:si>
   <x:si>
     <x:t>145</x:t>
@@ -682,13 +682,13 @@
     <x:t>695</x:t>
   </x:si>
   <x:si>
-    <x:t>102</x:t>
+    <x:t>103</x:t>
   </x:si>
   <x:si>
     <x:t>273</x:t>
   </x:si>
   <x:si>
-    <x:t>2084</x:t>
+    <x:t>2085</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -713,9 +713,6 @@
   </x:si>
   <x:si>
     <x:t>1187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -2869,7 +2866,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>214</x:v>
@@ -3014,19 +3011,19 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F66" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="F66" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -202,7 +202,7 @@
     <x:t>1707</x:t>
   </x:si>
   <x:si>
-    <x:t>71</x:t>
+    <x:t>69</x:t>
   </x:si>
   <x:si>
     <x:t>53</x:t>
@@ -214,10 +214,10 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1021</x:t>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1019</x:t>
   </x:si>
   <x:si>
     <x:t>548</x:t>
@@ -232,7 +232,7 @@
     <x:t>127</x:t>
   </x:si>
   <x:si>
-    <x:t>1866</x:t>
+    <x:t>1864</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,10 +316,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2581</x:t>
+    <x:t>8509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2580</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -331,10 +331,10 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>3027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15521</x:t>
+    <x:t>3026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15518</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -352,10 +352,10 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2692</x:t>
+    <x:t>9063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2691</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -367,10 +367,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>3243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16435</x:t>
+    <x:t>3242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16432</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -394,7 +394,7 @@
     <x:t>1221</x:t>
   </x:si>
   <x:si>
-    <x:t>662</x:t>
+    <x:t>661</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -406,7 +406,7 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>2448</x:t>
+    <x:t>2447</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -421,7 +421,7 @@
     <x:t>1253</x:t>
   </x:si>
   <x:si>
-    <x:t>693</x:t>
+    <x:t>692</x:t>
   </x:si>
   <x:si>
     <x:t>176</x:t>
@@ -430,7 +430,7 @@
     <x:t>357</x:t>
   </x:si>
   <x:si>
-    <x:t>2532</x:t>
+    <x:t>2531</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -391,9 +391,6 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1221</x:t>
-  </x:si>
-  <x:si>
     <x:t>661</x:t>
   </x:si>
   <x:si>
@@ -406,7 +403,7 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>2447</x:t>
+    <x:t>2448</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -418,7 +415,7 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>1253</x:t>
+    <x:t>1254</x:t>
   </x:si>
   <x:si>
     <x:t>692</x:t>
@@ -430,7 +427,7 @@
     <x:t>357</x:t>
   </x:si>
   <x:si>
-    <x:t>2531</x:t>
+    <x:t>2532</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -1961,25 +1958,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1990,7 +1987,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>32</x:v>
@@ -1999,7 +1996,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>15</x:v>
@@ -2008,7 +2005,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -2019,30 +2016,30 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2071,7 +2068,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>18</x:v>
@@ -2100,7 +2097,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2129,7 +2126,7 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
@@ -2138,27 +2135,27 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I36" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="I36" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2182,12 +2179,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
@@ -2208,27 +2205,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
         <x:v>13</x:v>
@@ -2237,7 +2234,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
         <x:v>77</x:v>
@@ -2245,19 +2242,19 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
         <x:v>13</x:v>
@@ -2266,7 +2263,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
         <x:v>77</x:v>
@@ -2274,19 +2271,19 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
         <x:v>30</x:v>
@@ -2298,12 +2295,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>18</x:v>
@@ -2332,19 +2329,19 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
         <x:v>30</x:v>
@@ -2356,50 +2353,50 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="G44" s="1" t="s">
+      <x:c r="H44" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="H44" s="1" t="s">
+      <x:c r="I44" s="1" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="I44" s="1" t="s">
-        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="D45" s="1" t="s">
-        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
         <x:v>29</x:v>
@@ -2414,50 +2411,50 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H46" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H46" s="1" t="s">
+      <x:c r="I46" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>69</x:v>
@@ -2472,18 +2469,18 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
         <x:v>86</x:v>
@@ -2501,27 +2498,27 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D49" s="1" t="s">
+      <x:c r="E49" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="F49" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="E49" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="F49" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>19</x:v>
@@ -2530,18 +2527,18 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
         <x:v>90</x:v>
@@ -2559,12 +2556,12 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>18</x:v>
@@ -2588,18 +2585,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>16</x:v>
@@ -2617,18 +2614,18 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>64</x:v>
@@ -2646,18 +2643,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>64</x:v>
@@ -2675,41 +2672,41 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="D55" s="1" t="s">
-        <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G55" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H55" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="G55" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H55" s="1" t="s">
+      <x:c r="I55" s="1" t="s">
         <x:v>195</x:v>
-      </x:c>
-      <x:c r="I55" s="1" t="s">
-        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>18</x:v>
@@ -2718,13 +2715,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>15</x:v>
@@ -2733,27 +2730,27 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
         <x:v>199</x:v>
-      </x:c>
-      <x:c r="D57" s="1" t="s">
-        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>15</x:v>
@@ -2762,21 +2759,21 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>204</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>16</x:v>
@@ -2788,21 +2785,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>116</x:v>
@@ -2817,21 +2814,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>46</x:v>
@@ -2840,50 +2837,50 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="I60" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="I60" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D61" s="1" t="s">
+      <x:c r="E61" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="E61" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="F61" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>215</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2892,10 +2889,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>30</x:v>
@@ -2904,56 +2901,56 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="E63" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="s">
         <x:v>223</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>228</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2962,15 +2959,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2979,13 +2976,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
@@ -2994,36 +2991,36 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E66" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="F66" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="E66" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="F66" s="1" t="s">
-        <x:v>233</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,7 +316,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8509</x:t>
+    <x:t>8507</x:t>
   </x:si>
   <x:si>
     <x:t>2580</x:t>
@@ -334,7 +334,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15518</x:t>
+    <x:t>15516</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -352,7 +352,7 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9063</x:t>
+    <x:t>9061</x:t>
   </x:si>
   <x:si>
     <x:t>2691</x:t>
@@ -370,7 +370,7 @@
     <x:t>3242</x:t>
   </x:si>
   <x:si>
-    <x:t>16432</x:t>
+    <x:t>16430</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -391,6 +391,9 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>1223</x:t>
+  </x:si>
+  <x:si>
     <x:t>661</x:t>
   </x:si>
   <x:si>
@@ -403,7 +406,7 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>2448</x:t>
+    <x:t>2449</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -415,7 +418,7 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>1254</x:t>
+    <x:t>1255</x:t>
   </x:si>
   <x:si>
     <x:t>692</x:t>
@@ -427,7 +430,7 @@
     <x:t>357</x:t>
   </x:si>
   <x:si>
-    <x:t>2532</x:t>
+    <x:t>2533</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -484,7 +487,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>6269</x:t>
+    <x:t>6270</x:t>
   </x:si>
   <x:si>
     <x:t>3622</x:t>
@@ -502,7 +505,7 @@
     <x:t>1172</x:t>
   </x:si>
   <x:si>
-    <x:t>12023</x:t>
+    <x:t>12024</x:t>
   </x:si>
   <x:si>
     <x:t>417</x:t>
@@ -514,7 +517,7 @@
     <x:t>932</x:t>
   </x:si>
   <x:si>
-    <x:t>6686</x:t>
+    <x:t>6687</x:t>
   </x:si>
   <x:si>
     <x:t>4007</x:t>
@@ -529,7 +532,7 @@
     <x:t>1270</x:t>
   </x:si>
   <x:si>
-    <x:t>12955</x:t>
+    <x:t>12956</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -625,10 +628,10 @@
     <x:t>521</x:t>
   </x:si>
   <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>877</x:t>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>876</x:t>
   </x:si>
   <x:si>
     <x:t>90</x:t>
@@ -640,10 +643,10 @@
     <x:t>611</x:t>
   </x:si>
   <x:si>
+    <x:t>229</x:t>
+  </x:si>
+  <x:si>
     <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1038</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -1958,25 +1961,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1987,7 +1990,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>32</x:v>
@@ -1996,7 +1999,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>15</x:v>
@@ -2005,7 +2008,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -2016,30 +2019,30 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2068,7 +2071,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>18</x:v>
@@ -2097,7 +2100,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2126,7 +2129,7 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
@@ -2135,27 +2138,27 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2179,12 +2182,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
@@ -2205,27 +2208,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
         <x:v>13</x:v>
@@ -2234,7 +2237,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
         <x:v>77</x:v>
@@ -2242,19 +2245,19 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
         <x:v>13</x:v>
@@ -2263,7 +2266,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
         <x:v>77</x:v>
@@ -2271,19 +2274,19 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
         <x:v>30</x:v>
@@ -2295,12 +2298,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>18</x:v>
@@ -2329,19 +2332,19 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
         <x:v>30</x:v>
@@ -2353,50 +2356,50 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
         <x:v>29</x:v>
@@ -2411,50 +2414,50 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>69</x:v>
@@ -2469,18 +2472,18 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
         <x:v>86</x:v>
@@ -2498,27 +2501,27 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>19</x:v>
@@ -2527,18 +2530,18 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
         <x:v>90</x:v>
@@ -2556,12 +2559,12 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>18</x:v>
@@ -2585,18 +2588,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>16</x:v>
@@ -2614,18 +2617,18 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>64</x:v>
@@ -2643,18 +2646,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>64</x:v>
@@ -2672,41 +2675,41 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>18</x:v>
@@ -2715,13 +2718,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>15</x:v>
@@ -2730,27 +2733,27 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>15</x:v>
@@ -2759,21 +2762,21 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>16</x:v>
@@ -2785,21 +2788,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>116</x:v>
@@ -2814,73 +2817,73 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2889,10 +2892,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>30</x:v>
@@ -2901,56 +2904,56 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2959,15 +2962,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2976,13 +2979,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
@@ -2991,36 +2994,36 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -127,7 +127,7 @@
     <x:t>7720</x:t>
   </x:si>
   <x:si>
-    <x:t>4795</x:t>
+    <x:t>4794</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
@@ -142,7 +142,7 @@
     <x:t>1406</x:t>
   </x:si>
   <x:si>
-    <x:t>15086</x:t>
+    <x:t>15085</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -163,7 +163,7 @@
     <x:t>8610</x:t>
   </x:si>
   <x:si>
-    <x:t>5333</x:t>
+    <x:t>5332</x:t>
   </x:si>
   <x:si>
     <x:t>324</x:t>
@@ -178,7 +178,7 @@
     <x:t>1636</x:t>
   </x:si>
   <x:si>
-    <x:t>16883</x:t>
+    <x:t>16882</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -547,97 +547,100 @@
     <x:t>42</x:t>
   </x:si>
   <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
     <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>574</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
   </x:si>
   <x:si>
     <x:t>611</x:t>
@@ -2486,7 +2489,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>30</x:v>
@@ -2501,7 +2504,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2512,10 +2515,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>153</x:v>
@@ -2820,7 +2823,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2831,10 +2834,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
         <x:v>109</x:v>
@@ -2846,7 +2849,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
         <x:v>115</x:v>
@@ -2854,36 +2857,36 @@
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2892,7 +2895,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>148</x:v>
@@ -2904,27 +2907,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
         <x:v>184</x:v>
@@ -2933,27 +2936,27 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2965,12 +2968,12 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2979,7 +2982,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
@@ -2994,12 +2997,12 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
@@ -3008,22 +3011,22 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -316,10 +316,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2580</x:t>
+    <x:t>8506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2579</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -334,7 +334,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15516</x:t>
+    <x:t>15514</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -352,10 +352,10 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2691</x:t>
+    <x:t>9060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2690</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -370,7 +370,7 @@
     <x:t>3242</x:t>
   </x:si>
   <x:si>
-    <x:t>16430</x:t>
+    <x:t>16428</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -127,7 +127,7 @@
     <x:t>7720</x:t>
   </x:si>
   <x:si>
-    <x:t>4794</x:t>
+    <x:t>4793</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
@@ -142,7 +142,7 @@
     <x:t>1406</x:t>
   </x:si>
   <x:si>
-    <x:t>15085</x:t>
+    <x:t>15084</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -163,7 +163,7 @@
     <x:t>8610</x:t>
   </x:si>
   <x:si>
-    <x:t>5332</x:t>
+    <x:t>5331</x:t>
   </x:si>
   <x:si>
     <x:t>324</x:t>
@@ -178,7 +178,7 @@
     <x:t>1636</x:t>
   </x:si>
   <x:si>
-    <x:t>16882</x:t>
+    <x:t>16881</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -265,7 +265,7 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>1026</x:t>
+    <x:t>1025</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>
@@ -277,15 +277,12 @@
     <x:t>94</x:t>
   </x:si>
   <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2001</x:t>
-  </x:si>
-  <x:si>
     <x:t>196</x:t>
   </x:si>
   <x:si>
+    <x:t>1999</x:t>
+  </x:si>
+  <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
@@ -295,7 +292,7 @@
     <x:t>336</x:t>
   </x:si>
   <x:si>
-    <x:t>1222</x:t>
+    <x:t>1221</x:t>
   </x:si>
   <x:si>
     <x:t>674</x:t>
@@ -307,10 +304,10 @@
     <x:t>108</x:t>
   </x:si>
   <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2337</x:t>
+    <x:t>239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2335</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
@@ -319,7 +316,7 @@
     <x:t>8506</x:t>
   </x:si>
   <x:si>
-    <x:t>2579</x:t>
+    <x:t>2578</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -334,7 +331,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15514</x:t>
+    <x:t>15513</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -355,7 +352,7 @@
     <x:t>9060</x:t>
   </x:si>
   <x:si>
-    <x:t>2690</x:t>
+    <x:t>2689</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -370,7 +367,7 @@
     <x:t>3242</x:t>
   </x:si>
   <x:si>
-    <x:t>16428</x:t>
+    <x:t>16427</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -700,13 +697,13 @@
     <x:t>687</x:t>
   </x:si>
   <x:si>
-    <x:t>1048</x:t>
+    <x:t>1047</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>2263</x:t>
+    <x:t>2262</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
@@ -715,7 +712,7 @@
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>1187</x:t>
+    <x:t>1186</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -724,7 +721,7 @@
     <x:t>397</x:t>
   </x:si>
   <x:si>
-    <x:t>2505</x:t>
+    <x:t>2504</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1674,7 +1671,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
         <x:v>17</x:v>
@@ -1683,16 +1680,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1703,117 +1700,117 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="s">
+      <x:c r="H22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
@@ -1834,15 +1831,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I25" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>18</x:v>
@@ -1866,18 +1863,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
         <x:v>33</x:v>
@@ -1895,12 +1892,12 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1929,7 +1926,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>20</x:v>
@@ -1958,42 +1955,42 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>32</x:v>
@@ -2002,7 +1999,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>15</x:v>
@@ -2011,41 +2008,41 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2074,7 +2071,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>18</x:v>
@@ -2103,7 +2100,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2127,12 +2124,12 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I35" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
@@ -2141,27 +2138,27 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I36" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="I36" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2185,12 +2182,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
@@ -2199,7 +2196,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>30</x:v>
@@ -2211,27 +2208,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
         <x:v>13</x:v>
@@ -2240,7 +2237,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
         <x:v>77</x:v>
@@ -2248,19 +2245,19 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
         <x:v>13</x:v>
@@ -2269,7 +2266,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
         <x:v>77</x:v>
@@ -2277,19 +2274,19 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
         <x:v>30</x:v>
@@ -2301,12 +2298,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>18</x:v>
@@ -2335,19 +2332,19 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
         <x:v>30</x:v>
@@ -2359,50 +2356,50 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="G44" s="1" t="s">
+      <x:c r="H44" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="H44" s="1" t="s">
+      <x:c r="I44" s="1" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="I44" s="1" t="s">
-        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="D45" s="1" t="s">
-        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
         <x:v>29</x:v>
@@ -2417,50 +2414,50 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H46" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H46" s="1" t="s">
+      <x:c r="I46" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>69</x:v>
@@ -2475,21 +2472,21 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>176</x:v>
-      </x:c>
-      <x:c r="D48" s="1" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>30</x:v>
@@ -2504,50 +2501,50 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>14</x:v>
@@ -2562,18 +2559,18 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>13</x:v>
@@ -2591,18 +2588,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>16</x:v>
@@ -2620,18 +2617,18 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>64</x:v>
@@ -2649,18 +2646,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>64</x:v>
@@ -2678,41 +2675,41 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="D55" s="1" t="s">
-        <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G55" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H55" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="G55" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H55" s="1" t="s">
+      <x:c r="I55" s="1" t="s">
         <x:v>195</x:v>
-      </x:c>
-      <x:c r="I55" s="1" t="s">
-        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>18</x:v>
@@ -2721,13 +2718,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>15</x:v>
@@ -2736,27 +2733,27 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D57" s="1" t="s">
-        <x:v>200</x:v>
-      </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>15</x:v>
@@ -2765,50 +2762,50 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>204</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>19</x:v>
@@ -2820,73 +2817,73 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="I59" s="1" t="s">
-        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>210</x:v>
-      </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="D61" s="1" t="s">
+      <x:c r="E61" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="E61" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="F61" s="1" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>216</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2895,10 +2892,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>30</x:v>
@@ -2907,56 +2904,56 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>219</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="E63" s="1" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>223</x:v>
-      </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="s">
         <x:v>224</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>229</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2965,15 +2962,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2982,51 +2979,51 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="E66" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F66" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="E66" s="1" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="F66" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8506</x:t>
+    <x:t>8505</x:t>
   </x:si>
   <x:si>
     <x:t>2578</x:t>
@@ -331,7 +331,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15513</x:t>
+    <x:t>15512</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -349,7 +349,7 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9060</x:t>
+    <x:t>9059</x:t>
   </x:si>
   <x:si>
     <x:t>2689</x:t>
@@ -367,7 +367,7 @@
     <x:t>3242</x:t>
   </x:si>
   <x:si>
-    <x:t>16427</x:t>
+    <x:t>16426</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8505</x:t>
+    <x:t>8503</x:t>
   </x:si>
   <x:si>
     <x:t>2578</x:t>
@@ -322,7 +322,7 @@
     <x:t>356</x:t>
   </x:si>
   <x:si>
-    <x:t>1020</x:t>
+    <x:t>1021</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -331,7 +331,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15512</x:t>
+    <x:t>15511</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -349,7 +349,7 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9059</x:t>
+    <x:t>9057</x:t>
   </x:si>
   <x:si>
     <x:t>2689</x:t>
@@ -358,301 +358,304 @@
     <x:t>371</x:t>
   </x:si>
   <x:si>
+    <x:t>1038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
     <x:t>1037</x:t>
   </x:si>
   <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>692</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>574</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>851</x:t>
+    <x:t>852</x:t>
   </x:si>
   <x:si>
     <x:t>550</x:t>
@@ -664,7 +667,7 @@
     <x:t>235</x:t>
   </x:si>
   <x:si>
-    <x:t>1878</x:t>
+    <x:t>1879</x:t>
   </x:si>
   <x:si>
     <x:t>145</x:t>
@@ -676,7 +679,7 @@
     <x:t>207</x:t>
   </x:si>
   <x:si>
-    <x:t>866</x:t>
+    <x:t>867</x:t>
   </x:si>
   <x:si>
     <x:t>695</x:t>
@@ -688,7 +691,7 @@
     <x:t>273</x:t>
   </x:si>
   <x:si>
-    <x:t>2085</x:t>
+    <x:t>2086</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -697,13 +700,13 @@
     <x:t>687</x:t>
   </x:si>
   <x:si>
-    <x:t>1047</x:t>
+    <x:t>1048</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>2262</x:t>
+    <x:t>2263</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
@@ -712,7 +715,7 @@
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>1186</x:t>
+    <x:t>1187</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -721,7 +724,7 @@
     <x:t>397</x:t>
   </x:si>
   <x:si>
-    <x:t>2504</x:t>
+    <x:t>2505</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2849,41 +2852,41 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>18</x:v>
@@ -2892,7 +2895,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>147</x:v>
@@ -2904,27 +2907,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
         <x:v>183</x:v>
@@ -2933,27 +2936,27 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>24</x:v>
@@ -2965,12 +2968,12 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>18</x:v>
@@ -2979,7 +2982,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>45</x:v>
@@ -2994,12 +2997,12 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>20</x:v>
@@ -3008,22 +3011,22 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>8503</x:t>
+    <x:t>8502</x:t>
   </x:si>
   <x:si>
     <x:t>2578</x:t>
@@ -331,7 +331,7 @@
     <x:t>3026</x:t>
   </x:si>
   <x:si>
-    <x:t>15511</x:t>
+    <x:t>15510</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -349,7 +349,7 @@
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>9057</x:t>
+    <x:t>9056</x:t>
   </x:si>
   <x:si>
     <x:t>2689</x:t>
@@ -367,7 +367,7 @@
     <x:t>3242</x:t>
   </x:si>
   <x:si>
-    <x:t>16425</x:t>
+    <x:t>16424</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
